--- a/public/data/yield_loss/yield_table_rwanda.xlsx
+++ b/public/data/yield_loss/yield_table_rwanda.xlsx
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>30066.61</v>
+        <v>30064.85</v>
       </c>
       <c r="G4" t="n">
         <v>1.3</v>
@@ -1423,7 +1423,7 @@
         <v>3.63</v>
       </c>
       <c r="L4" t="n">
-        <v>114.19</v>
+        <v>114.18</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30789.42</v>
+        <v>30011.72</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22179.14</v>
+        <v>22151.13</v>
       </c>
       <c r="G9" t="n">
         <v>27.38</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>19.14</v>
+        <v>19.08</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>3871.15</v>
       </c>
       <c r="U9" t="n">
-        <v>106.38</v>
+        <v>106.27</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>43758.2</v>
+        <v>31424.58</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>26889.18</v>
+        <v>26599.27</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>64193.43</v>
+        <v>62084.98</v>
       </c>
       <c r="G12" t="n">
         <v>64.07</v>
@@ -2090,7 +2090,7 @@
         <v>12995.95</v>
       </c>
       <c r="U12" t="n">
-        <v>219.21</v>
+        <v>219.2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>30520.21</v>
+        <v>29286.38</v>
       </c>
       <c r="G13" t="n">
         <v>2.37</v>
@@ -2152,7 +2152,7 @@
         <v>3223.29</v>
       </c>
       <c r="O13" t="n">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>6283.98</v>
       </c>
       <c r="U13" t="n">
-        <v>160.48</v>
+        <v>157.92</v>
       </c>
       <c r="V13" t="n">
         <v>0.01</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>43043.71</v>
+        <v>42030.05</v>
       </c>
       <c r="G14" t="n">
         <v>6.09</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>438.5</v>
+        <v>438.49</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>60.15</v>
       </c>
       <c r="U15" t="n">
-        <v>194.57</v>
+        <v>194.47</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10925</v>
+        <v>10924.83</v>
       </c>
       <c r="G16" t="n">
         <v>0.35</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>7453.87</v>
+        <v>7453.19</v>
       </c>
       <c r="G21" t="n">
         <v>1.02</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13049.95</v>
+        <v>12880.36</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5807.53</v>
+        <v>5640.45</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1351.18</v>
+        <v>1347.85</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1716.51</v>
+        <v>1691.93</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>8.91</v>
+        <v>8.83</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>29.95</v>
+        <v>29.84</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3347.07</v>
+        <v>3331.2</v>
       </c>
       <c r="G31" t="n">
         <v>21.29</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>15.42</v>
+        <v>15.36</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>242.97</v>
       </c>
       <c r="U31" t="n">
-        <v>26.46</v>
+        <v>26.35</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
